--- a/Jogos_do_Dia/2023-08-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t>League</t>
   </si>
@@ -121,12 +121,12 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
+    <t>Ukraine Ukrainian Premier League</t>
+  </si>
+  <si>
     <t>Europe UEFA Champions League</t>
   </si>
   <si>
-    <t>Ukraine Ukrainian Premier League</t>
-  </si>
-  <si>
     <t>USA USL Championship</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>South America Copa Libertadores</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera A</t>
+  </si>
+  <si>
     <t>11:00:00</t>
   </si>
   <si>
@@ -166,12 +169,15 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>Veres Rivne</t>
+  </si>
+  <si>
     <t>Astana</t>
   </si>
   <si>
-    <t>Veres Rivne</t>
-  </si>
-  <si>
     <t>Loudoun United</t>
   </si>
   <si>
@@ -181,15 +187,15 @@
     <t>KRC Genk</t>
   </si>
   <si>
+    <t>Maccabi Haifa</t>
+  </si>
+  <si>
+    <t>Molde</t>
+  </si>
+  <si>
     <t>Häcken</t>
   </si>
   <si>
-    <t>Molde</t>
-  </si>
-  <si>
-    <t>Maccabi Haifa</t>
-  </si>
-  <si>
     <t>København</t>
   </si>
   <si>
@@ -199,24 +205,45 @@
     <t>Santiago Morning</t>
   </si>
   <si>
+    <t>Ituano</t>
+  </si>
+  <si>
     <t>Criciúma</t>
   </si>
   <si>
-    <t>Ituano</t>
-  </si>
-  <si>
     <t>Nacional</t>
   </si>
   <si>
     <t>Deportivo Pereira</t>
   </si>
   <si>
+    <t>Santa Fe</t>
+  </si>
+  <si>
+    <t>Guarani</t>
+  </si>
+  <si>
+    <t>Vila Nova</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Londrina</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Shakhtar Donetsk</t>
+  </si>
+  <si>
     <t>Dinamo Zagreb</t>
   </si>
   <si>
-    <t>Shakhtar Donetsk</t>
-  </si>
-  <si>
     <t>Memphis 901</t>
   </si>
   <si>
@@ -226,15 +253,15 @@
     <t>Servette</t>
   </si>
   <si>
+    <t>Sheriff</t>
+  </si>
+  <si>
+    <t>HJK</t>
+  </si>
+  <si>
     <t>KÍ</t>
   </si>
   <si>
-    <t>HJK</t>
-  </si>
-  <si>
-    <t>Sheriff</t>
-  </si>
-  <si>
     <t>Breidablik</t>
   </si>
   <si>
@@ -244,16 +271,37 @@
     <t>San Luis</t>
   </si>
   <si>
+    <t>Tombense</t>
+  </si>
+  <si>
     <t>Ponte Preta</t>
   </si>
   <si>
-    <t>Tombense</t>
-  </si>
-  <si>
     <t>Boca Juniors</t>
   </si>
   <si>
     <t>CSD Independiente del Valle</t>
+  </si>
+  <si>
+    <t>Independiente Medellín</t>
+  </si>
+  <si>
+    <t>Ceará</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Novorizontino</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
   </si>
 </sst>
 </file>
@@ -615,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,79 +784,79 @@
         <v>45140</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G2">
-        <v>3.73</v>
+        <v>6.81</v>
       </c>
       <c r="H2">
-        <v>3.48</v>
+        <v>4.95</v>
       </c>
       <c r="I2">
-        <v>1.97</v>
+        <v>1.36</v>
       </c>
       <c r="J2">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="O2">
-        <v>1.87</v>
+        <v>2.23</v>
       </c>
       <c r="P2">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>3</v>
       </c>
       <c r="Y2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AA2">
-        <v>2.25</v>
+        <v>2.82</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -820,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -843,103 +891,103 @@
         <v>45140</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>3.45</v>
+      </c>
+      <c r="H3">
+        <v>3.25</v>
+      </c>
+      <c r="I3">
+        <v>1.89</v>
+      </c>
+      <c r="J3">
+        <v>1.06</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <v>1.33</v>
+      </c>
+      <c r="M3">
+        <v>3.2</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3">
-        <v>6.6</v>
-      </c>
-      <c r="H3">
-        <v>4.8</v>
-      </c>
-      <c r="I3">
-        <v>1.39</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>1.55</v>
-      </c>
       <c r="O3">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X3">
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Z3">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -950,25 +998,25 @@
         <v>45140</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>3.56</v>
+        <v>3.44</v>
       </c>
       <c r="H4">
-        <v>3.55</v>
+        <v>2.99</v>
       </c>
       <c r="I4">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="J4">
         <v>1.01</v>
@@ -1016,66 +1064,66 @@
         <v>1.67</v>
       </c>
       <c r="Y4">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Z4">
         <v>1.61</v>
       </c>
       <c r="AA4">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>45140</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G5">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
-        <v>2.93</v>
+        <v>3.3</v>
       </c>
       <c r="J5">
         <v>1.06</v>
@@ -1090,7 +1138,7 @@
         <v>2.85</v>
       </c>
       <c r="N5">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
         <v>1.6</v>
@@ -1132,13 +1180,13 @@
         <v>5.28</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE5">
         <v>1.33</v>
@@ -1158,31 +1206,31 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>45140</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G6">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H6">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
       <c r="I6">
-        <v>4.94</v>
+        <v>4.35</v>
       </c>
       <c r="J6">
         <v>1.04</v>
@@ -1197,10 +1245,10 @@
         <v>4.12</v>
       </c>
       <c r="N6">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="P6">
         <v>1.32</v>
@@ -1239,164 +1287,164 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>45140</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G7">
+        <v>1.32</v>
+      </c>
+      <c r="H7">
+        <v>4.25</v>
+      </c>
+      <c r="I7">
+        <v>7.5</v>
+      </c>
+      <c r="J7">
+        <v>1.02</v>
+      </c>
+      <c r="K7">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L7">
         <v>1.3</v>
       </c>
-      <c r="H7">
-        <v>4.5</v>
-      </c>
-      <c r="I7">
-        <v>6.8</v>
-      </c>
-      <c r="J7">
-        <v>1.03</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>1.19</v>
-      </c>
       <c r="M7">
-        <v>4.33</v>
+        <v>3.14</v>
       </c>
       <c r="N7">
-        <v>1.53</v>
+        <v>1.97</v>
       </c>
       <c r="O7">
+        <v>1.85</v>
+      </c>
+      <c r="P7">
+        <v>1.4</v>
+      </c>
+      <c r="Q7">
+        <v>2.75</v>
+      </c>
+      <c r="R7">
+        <v>2.25</v>
+      </c>
+      <c r="S7">
+        <v>1.55</v>
+      </c>
+      <c r="T7">
+        <v>1.09</v>
+      </c>
+      <c r="U7">
+        <v>1.2</v>
+      </c>
+      <c r="V7">
+        <v>2.75</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>2.04</v>
+      </c>
+      <c r="Z7">
+        <v>1.68</v>
+      </c>
+      <c r="AA7">
+        <v>3.72</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>1.28</v>
+      </c>
+      <c r="AF7">
+        <v>1.5</v>
+      </c>
+      <c r="AG7">
+        <v>1.83</v>
+      </c>
+      <c r="AH7">
         <v>2.35</v>
       </c>
-      <c r="P7">
-        <v>1.28</v>
-      </c>
-      <c r="Q7">
-        <v>3.3</v>
-      </c>
-      <c r="R7">
-        <v>1.95</v>
-      </c>
-      <c r="S7">
-        <v>1.75</v>
-      </c>
-      <c r="T7">
-        <v>1.08</v>
-      </c>
-      <c r="U7">
-        <v>1.15</v>
-      </c>
-      <c r="V7">
-        <v>3.2</v>
-      </c>
-      <c r="W7">
-        <v>2.33</v>
-      </c>
-      <c r="X7">
-        <v>1.67</v>
-      </c>
-      <c r="Y7">
-        <v>2.9</v>
-      </c>
-      <c r="Z7">
-        <v>1.42</v>
-      </c>
-      <c r="AA7">
-        <v>4.32</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>1.25</v>
-      </c>
-      <c r="AF7">
-        <v>1.47</v>
-      </c>
-      <c r="AG7">
-        <v>1.8</v>
-      </c>
-      <c r="AH7">
-        <v>2.25</v>
-      </c>
       <c r="AI7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2">
         <v>45140</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="H8">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I8">
-        <v>7.2</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>1.03</v>
@@ -1411,10 +1459,10 @@
         <v>4.25</v>
       </c>
       <c r="N8">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="O8">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="P8">
         <v>1.3</v>
@@ -1453,16 +1501,16 @@
         <v>1.42</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF8">
         <v>1.36</v>
@@ -1479,138 +1527,138 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2">
         <v>45140</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G9">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="H9">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="I9">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="J9">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K9">
-        <v>8.699999999999999</v>
+        <v>14</v>
       </c>
       <c r="L9">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="M9">
-        <v>3.14</v>
+        <v>4.33</v>
       </c>
       <c r="N9">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="O9">
+        <v>2.36</v>
+      </c>
+      <c r="P9">
+        <v>1.28</v>
+      </c>
+      <c r="Q9">
+        <v>3.3</v>
+      </c>
+      <c r="R9">
+        <v>1.95</v>
+      </c>
+      <c r="S9">
+        <v>1.75</v>
+      </c>
+      <c r="T9">
+        <v>1.08</v>
+      </c>
+      <c r="U9">
+        <v>1.15</v>
+      </c>
+      <c r="V9">
+        <v>3.2</v>
+      </c>
+      <c r="W9">
+        <v>2.33</v>
+      </c>
+      <c r="X9">
+        <v>1.67</v>
+      </c>
+      <c r="Y9">
+        <v>2.9</v>
+      </c>
+      <c r="Z9">
+        <v>1.42</v>
+      </c>
+      <c r="AA9">
+        <v>4.32</v>
+      </c>
+      <c r="AB9">
+        <v>1.29</v>
+      </c>
+      <c r="AC9">
+        <v>13.5</v>
+      </c>
+      <c r="AD9">
+        <v>4.49</v>
+      </c>
+      <c r="AE9">
+        <v>1.25</v>
+      </c>
+      <c r="AF9">
+        <v>1.47</v>
+      </c>
+      <c r="AG9">
         <v>1.8</v>
       </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>2.75</v>
-      </c>
-      <c r="R9">
+      <c r="AH9">
         <v>2.25</v>
       </c>
-      <c r="S9">
-        <v>1.55</v>
-      </c>
-      <c r="T9">
-        <v>1.09</v>
-      </c>
-      <c r="U9">
-        <v>1.2</v>
-      </c>
-      <c r="V9">
-        <v>2.75</v>
-      </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
-      <c r="Y9">
-        <v>2.04</v>
-      </c>
-      <c r="Z9">
-        <v>1.68</v>
-      </c>
-      <c r="AA9">
-        <v>3.72</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>1.28</v>
-      </c>
-      <c r="AF9">
-        <v>1.5</v>
-      </c>
-      <c r="AG9">
-        <v>1.83</v>
-      </c>
-      <c r="AH9">
-        <v>2.35</v>
-      </c>
       <c r="AI9">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2">
         <v>45140</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G10">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="H10">
-        <v>5.67</v>
+        <v>5.2</v>
       </c>
       <c r="I10">
-        <v>10.16</v>
+        <v>8.5</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -1625,10 +1673,10 @@
         <v>4.6</v>
       </c>
       <c r="N10">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="O10">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="P10">
         <v>1.28</v>
@@ -1693,22 +1741,22 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2">
         <v>45140</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G11">
         <v>1.11</v>
@@ -1732,10 +1780,10 @@
         <v>5.75</v>
       </c>
       <c r="N11">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="O11">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="P11">
         <v>1.25</v>
@@ -1806,16 +1854,16 @@
         <v>45140</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <v>2.65</v>
@@ -1913,103 +1961,103 @@
         <v>45140</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="H13">
+        <v>3.2</v>
+      </c>
+      <c r="I13">
         <v>3.35</v>
       </c>
-      <c r="I13">
-        <v>5.25</v>
-      </c>
       <c r="J13">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K13">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L13">
+        <v>1.5</v>
+      </c>
+      <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
+        <v>2.36</v>
+      </c>
+      <c r="O13">
+        <v>1.52</v>
+      </c>
+      <c r="P13">
         <v>1.53</v>
       </c>
-      <c r="M13">
-        <v>2.35</v>
-      </c>
-      <c r="N13">
-        <v>2.6</v>
-      </c>
-      <c r="O13">
-        <v>1.44</v>
-      </c>
-      <c r="P13">
-        <v>1.57</v>
-      </c>
       <c r="Q13">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R13">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="T13">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="U13">
         <v>1.34</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="W13">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="X13">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="Y13">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="Z13">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="AA13">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2020,103 +2068,103 @@
         <v>45140</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="H14">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>3.69</v>
+        <v>4.7</v>
       </c>
       <c r="J14">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="K14">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="N14">
-        <v>2.35</v>
+        <v>2.73</v>
       </c>
       <c r="O14">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="P14">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q14">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R14">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="S14">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="T14">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="U14">
         <v>1.34</v>
       </c>
       <c r="V14">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="X14">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="Y14">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="Z14">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="AA14">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2127,25 +2175,25 @@
         <v>45140</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G15">
+        <v>2.53</v>
+      </c>
+      <c r="H15">
+        <v>3.2</v>
+      </c>
+      <c r="I15">
         <v>2.7</v>
-      </c>
-      <c r="H15">
-        <v>3.15</v>
-      </c>
-      <c r="I15">
-        <v>2.55</v>
       </c>
       <c r="J15">
         <v>1.08</v>
@@ -2160,10 +2208,10 @@
         <v>2.66</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="O15">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="P15">
         <v>1.53</v>
@@ -2234,25 +2282,25 @@
         <v>45140</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="J16">
         <v>1.05</v>
@@ -2270,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="O16">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P16">
         <v>1.44</v>
@@ -2331,6 +2379,755 @@
       </c>
       <c r="AI16">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17">
+        <v>1.9</v>
+      </c>
+      <c r="H17">
+        <v>3.4</v>
+      </c>
+      <c r="I17">
+        <v>4.2</v>
+      </c>
+      <c r="J17">
+        <v>1.07</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>1.36</v>
+      </c>
+      <c r="M17">
+        <v>3.1</v>
+      </c>
+      <c r="N17">
+        <v>2.05</v>
+      </c>
+      <c r="O17">
+        <v>1.75</v>
+      </c>
+      <c r="P17">
+        <v>1.44</v>
+      </c>
+      <c r="Q17">
+        <v>2.6</v>
+      </c>
+      <c r="R17">
+        <v>1.9</v>
+      </c>
+      <c r="S17">
+        <v>1.83</v>
+      </c>
+      <c r="T17">
+        <v>1.22</v>
+      </c>
+      <c r="U17">
+        <v>1.25</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
+        <v>2</v>
+      </c>
+      <c r="X17">
+        <v>0.85</v>
+      </c>
+      <c r="Y17">
+        <v>1.84</v>
+      </c>
+      <c r="Z17">
+        <v>1.32</v>
+      </c>
+      <c r="AA17">
+        <v>3.16</v>
+      </c>
+      <c r="AB17">
+        <v>1.55</v>
+      </c>
+      <c r="AC17">
+        <v>8</v>
+      </c>
+      <c r="AD17">
+        <v>2.92</v>
+      </c>
+      <c r="AE17">
+        <v>1.31</v>
+      </c>
+      <c r="AF17">
+        <v>1.6</v>
+      </c>
+      <c r="AG17">
+        <v>1.95</v>
+      </c>
+      <c r="AH17">
+        <v>2.75</v>
+      </c>
+      <c r="AI17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>2.28</v>
+      </c>
+      <c r="H18">
+        <v>3.05</v>
+      </c>
+      <c r="I18">
+        <v>2.85</v>
+      </c>
+      <c r="J18">
+        <v>1.1</v>
+      </c>
+      <c r="K18">
+        <v>6.5</v>
+      </c>
+      <c r="L18">
+        <v>1.45</v>
+      </c>
+      <c r="M18">
+        <v>2.6</v>
+      </c>
+      <c r="N18">
+        <v>2.3</v>
+      </c>
+      <c r="O18">
+        <v>1.53</v>
+      </c>
+      <c r="P18">
+        <v>1.53</v>
+      </c>
+      <c r="Q18">
+        <v>2.38</v>
+      </c>
+      <c r="R18">
+        <v>2.1</v>
+      </c>
+      <c r="S18">
+        <v>1.67</v>
+      </c>
+      <c r="T18">
+        <v>1.25</v>
+      </c>
+      <c r="U18">
+        <v>1.28</v>
+      </c>
+      <c r="V18">
+        <v>1.66</v>
+      </c>
+      <c r="W18">
+        <v>2.44</v>
+      </c>
+      <c r="X18">
+        <v>1.5</v>
+      </c>
+      <c r="Y18">
+        <v>1.42</v>
+      </c>
+      <c r="Z18">
+        <v>1.14</v>
+      </c>
+      <c r="AA18">
+        <v>2.56</v>
+      </c>
+      <c r="AB18">
+        <v>1.7</v>
+      </c>
+      <c r="AC18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
+        <v>2.7</v>
+      </c>
+      <c r="AE18">
+        <v>1.17</v>
+      </c>
+      <c r="AF18">
+        <v>1.3</v>
+      </c>
+      <c r="AG18">
+        <v>1.58</v>
+      </c>
+      <c r="AH18">
+        <v>1.96</v>
+      </c>
+      <c r="AI18">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19">
+        <v>2.26</v>
+      </c>
+      <c r="H19">
+        <v>2.92</v>
+      </c>
+      <c r="I19">
+        <v>2.99</v>
+      </c>
+      <c r="J19">
+        <v>1.1</v>
+      </c>
+      <c r="K19">
+        <v>6.5</v>
+      </c>
+      <c r="L19">
+        <v>1.5</v>
+      </c>
+      <c r="M19">
+        <v>2.45</v>
+      </c>
+      <c r="N19">
+        <v>2.45</v>
+      </c>
+      <c r="O19">
+        <v>1.52</v>
+      </c>
+      <c r="P19">
+        <v>1.57</v>
+      </c>
+      <c r="Q19">
+        <v>2.25</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>1.67</v>
+      </c>
+      <c r="T19">
+        <v>1.3</v>
+      </c>
+      <c r="U19">
+        <v>1.33</v>
+      </c>
+      <c r="V19">
+        <v>1.53</v>
+      </c>
+      <c r="W19">
+        <v>2.33</v>
+      </c>
+      <c r="X19">
+        <v>1.11</v>
+      </c>
+      <c r="Y19">
+        <v>1.91</v>
+      </c>
+      <c r="Z19">
+        <v>1.2</v>
+      </c>
+      <c r="AA19">
+        <v>3.11</v>
+      </c>
+      <c r="AB19">
+        <v>1.7</v>
+      </c>
+      <c r="AC19">
+        <v>7</v>
+      </c>
+      <c r="AD19">
+        <v>2.7</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>1.21</v>
+      </c>
+      <c r="AG19">
+        <v>1.43</v>
+      </c>
+      <c r="AH19">
+        <v>1.74</v>
+      </c>
+      <c r="AI19">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20">
+        <v>1.55</v>
+      </c>
+      <c r="H20">
+        <v>3.7</v>
+      </c>
+      <c r="I20">
+        <v>4.9</v>
+      </c>
+      <c r="J20">
+        <v>1.08</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>1.42</v>
+      </c>
+      <c r="M20">
+        <v>2.7</v>
+      </c>
+      <c r="N20">
+        <v>2.35</v>
+      </c>
+      <c r="O20">
+        <v>1.53</v>
+      </c>
+      <c r="P20">
+        <v>1.5</v>
+      </c>
+      <c r="Q20">
+        <v>2.5</v>
+      </c>
+      <c r="R20">
+        <v>2.5</v>
+      </c>
+      <c r="S20">
+        <v>1.5</v>
+      </c>
+      <c r="T20">
+        <v>1.05</v>
+      </c>
+      <c r="U20">
+        <v>1.2</v>
+      </c>
+      <c r="V20">
+        <v>2.35</v>
+      </c>
+      <c r="W20">
+        <v>2.33</v>
+      </c>
+      <c r="X20">
+        <v>0.7</v>
+      </c>
+      <c r="Y20">
+        <v>1.7</v>
+      </c>
+      <c r="Z20">
+        <v>0.99</v>
+      </c>
+      <c r="AA20">
+        <v>2.69</v>
+      </c>
+      <c r="AB20">
+        <v>1.25</v>
+      </c>
+      <c r="AC20">
+        <v>9</v>
+      </c>
+      <c r="AD20">
+        <v>5.25</v>
+      </c>
+      <c r="AE20">
+        <v>1.23</v>
+      </c>
+      <c r="AF20">
+        <v>1.43</v>
+      </c>
+      <c r="AG20">
+        <v>1.74</v>
+      </c>
+      <c r="AH20">
+        <v>2.13</v>
+      </c>
+      <c r="AI20">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21">
+        <v>2.49</v>
+      </c>
+      <c r="H21">
+        <v>2.9</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1.1</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <v>1.48</v>
+      </c>
+      <c r="M21">
+        <v>2.46</v>
+      </c>
+      <c r="N21">
+        <v>2.45</v>
+      </c>
+      <c r="O21">
+        <v>1.52</v>
+      </c>
+      <c r="P21">
+        <v>1.57</v>
+      </c>
+      <c r="Q21">
+        <v>2.25</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>1.62</v>
+      </c>
+      <c r="T21">
+        <v>1.38</v>
+      </c>
+      <c r="U21">
+        <v>1.34</v>
+      </c>
+      <c r="V21">
+        <v>1.52</v>
+      </c>
+      <c r="W21">
+        <v>1.78</v>
+      </c>
+      <c r="X21">
+        <v>1.9</v>
+      </c>
+      <c r="Y21">
+        <v>1.66</v>
+      </c>
+      <c r="Z21">
+        <v>1.46</v>
+      </c>
+      <c r="AA21">
+        <v>3.12</v>
+      </c>
+      <c r="AB21">
+        <v>1.88</v>
+      </c>
+      <c r="AC21">
+        <v>7.5</v>
+      </c>
+      <c r="AD21">
+        <v>2.3</v>
+      </c>
+      <c r="AE21">
+        <v>1.13</v>
+      </c>
+      <c r="AF21">
+        <v>1.24</v>
+      </c>
+      <c r="AG21">
+        <v>1.52</v>
+      </c>
+      <c r="AH21">
+        <v>1.82</v>
+      </c>
+      <c r="AI21">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22">
+        <v>2.35</v>
+      </c>
+      <c r="H22">
+        <v>2.98</v>
+      </c>
+      <c r="I22">
+        <v>2.79</v>
+      </c>
+      <c r="J22">
+        <v>1.11</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>1.45</v>
+      </c>
+      <c r="M22">
+        <v>2.6</v>
+      </c>
+      <c r="N22">
+        <v>2.4</v>
+      </c>
+      <c r="O22">
+        <v>1.5</v>
+      </c>
+      <c r="P22">
+        <v>1.53</v>
+      </c>
+      <c r="Q22">
+        <v>2.38</v>
+      </c>
+      <c r="R22">
+        <v>2.1</v>
+      </c>
+      <c r="S22">
+        <v>1.67</v>
+      </c>
+      <c r="T22">
+        <v>1.33</v>
+      </c>
+      <c r="U22">
+        <v>1.3</v>
+      </c>
+      <c r="V22">
+        <v>1.53</v>
+      </c>
+      <c r="W22">
+        <v>1.11</v>
+      </c>
+      <c r="X22">
+        <v>0.63</v>
+      </c>
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
+        <v>1.39</v>
+      </c>
+      <c r="AA22">
+        <v>2.56</v>
+      </c>
+      <c r="AB22">
+        <v>1.48</v>
+      </c>
+      <c r="AC22">
+        <v>8</v>
+      </c>
+      <c r="AD22">
+        <v>3.4</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>1.4</v>
+      </c>
+      <c r="AG22">
+        <v>1.68</v>
+      </c>
+      <c r="AH22">
+        <v>2.06</v>
+      </c>
+      <c r="AI22">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>2.48</v>
+      </c>
+      <c r="H23">
+        <v>3.07</v>
+      </c>
+      <c r="I23">
+        <v>2.62</v>
+      </c>
+      <c r="J23">
+        <v>1.06</v>
+      </c>
+      <c r="K23">
+        <v>8.6</v>
+      </c>
+      <c r="L23">
+        <v>1.39</v>
+      </c>
+      <c r="M23">
+        <v>2.91</v>
+      </c>
+      <c r="N23">
+        <v>2.17</v>
+      </c>
+      <c r="O23">
+        <v>1.7</v>
+      </c>
+      <c r="P23">
+        <v>1.44</v>
+      </c>
+      <c r="Q23">
+        <v>2.63</v>
+      </c>
+      <c r="R23">
+        <v>1.91</v>
+      </c>
+      <c r="S23">
+        <v>1.91</v>
+      </c>
+      <c r="T23">
+        <v>1.42</v>
+      </c>
+      <c r="U23">
+        <v>1.3</v>
+      </c>
+      <c r="V23">
+        <v>1.53</v>
+      </c>
+      <c r="W23">
+        <v>1.8</v>
+      </c>
+      <c r="X23">
+        <v>2.5</v>
+      </c>
+      <c r="Y23">
+        <v>2.17</v>
+      </c>
+      <c r="Z23">
+        <v>1.69</v>
+      </c>
+      <c r="AA23">
+        <v>3.86</v>
+      </c>
+      <c r="AB23">
+        <v>1.79</v>
+      </c>
+      <c r="AC23">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>2.38</v>
+      </c>
+      <c r="AE23">
+        <v>1.15</v>
+      </c>
+      <c r="AF23">
+        <v>1.32</v>
+      </c>
+      <c r="AG23">
+        <v>1.59</v>
+      </c>
+      <c r="AH23">
+        <v>1.95</v>
+      </c>
+      <c r="AI23">
+        <v>2.51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-02_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-02_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t>League</t>
   </si>
@@ -121,33 +121,18 @@
     <t>Odds_Corners_Over115</t>
   </si>
   <si>
-    <t>Ukraine Ukrainian Premier League</t>
-  </si>
-  <si>
     <t>Europe UEFA Champions League</t>
   </si>
   <si>
-    <t>USA USL Championship</t>
-  </si>
-  <si>
-    <t>Chile Primera B</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
     <t>South America Copa Libertadores</t>
   </si>
   <si>
-    <t>Colombia Categoria Primera A</t>
-  </si>
-  <si>
     <t>11:00:00</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -160,9 +145,6 @@
     <t>15:30:00</t>
   </si>
   <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
     <t>19:00:00</t>
   </si>
   <si>
@@ -172,15 +154,9 @@
     <t>21:30:00</t>
   </si>
   <si>
-    <t>Veres Rivne</t>
-  </si>
-  <si>
     <t>Astana</t>
   </si>
   <si>
-    <t>Loudoun United</t>
-  </si>
-  <si>
     <t>Qarabağ</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t>Galatasaray</t>
   </si>
   <si>
-    <t>Santiago Morning</t>
-  </si>
-  <si>
     <t>Ituano</t>
   </si>
   <si>
@@ -217,9 +190,6 @@
     <t>Deportivo Pereira</t>
   </si>
   <si>
-    <t>Santa Fe</t>
-  </si>
-  <si>
     <t>Guarani</t>
   </si>
   <si>
@@ -238,15 +208,9 @@
     <t>Atlético Mineiro</t>
   </si>
   <si>
-    <t>Shakhtar Donetsk</t>
-  </si>
-  <si>
     <t>Dinamo Zagreb</t>
   </si>
   <si>
-    <t>Memphis 901</t>
-  </si>
-  <si>
     <t>Raków Częstochowa</t>
   </si>
   <si>
@@ -268,9 +232,6 @@
     <t>Žalgiris</t>
   </si>
   <si>
-    <t>San Luis</t>
-  </si>
-  <si>
     <t>Tombense</t>
   </si>
   <si>
@@ -281,9 +242,6 @@
   </si>
   <si>
     <t>CSD Independiente del Valle</t>
-  </si>
-  <si>
-    <t>Independiente Medellín</t>
   </si>
   <si>
     <t>Ceará</t>
@@ -663,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI23"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -784,132 +742,132 @@
         <v>45140</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>6.81</v>
+        <v>3.09</v>
       </c>
       <c r="H2">
-        <v>4.95</v>
+        <v>3.4</v>
       </c>
       <c r="I2">
-        <v>1.36</v>
+        <v>2.29</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="N2">
-        <v>1.58</v>
+        <v>1.98</v>
       </c>
       <c r="O2">
-        <v>2.23</v>
+        <v>1.73</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>3</v>
       </c>
       <c r="Y2">
+        <v>2.25</v>
+      </c>
+      <c r="Z2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>2.82</v>
-      </c>
       <c r="AA2">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>45140</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G3">
-        <v>3.45</v>
+        <v>2.27</v>
       </c>
       <c r="H3">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="I3">
-        <v>1.89</v>
+        <v>3.28</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -918,530 +876,530 @@
         <v>8</v>
       </c>
       <c r="L3">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M3">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O3">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="P3">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="Q3">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="R3">
         <v>1.83</v>
       </c>
       <c r="S3">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
-        <v>1.82</v>
+        <v>1.3</v>
       </c>
       <c r="U3">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V3">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="W3">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>3</v>
       </c>
       <c r="Y3">
-        <v>2.25</v>
+        <v>2.81</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AA3">
-        <v>2.25</v>
+        <v>5.28</v>
       </c>
       <c r="AB3">
-        <v>2.69</v>
+        <v>1.62</v>
       </c>
       <c r="AC3">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="AD3">
-        <v>1.72</v>
+        <v>2.88</v>
       </c>
       <c r="AE3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF3">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AG3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH3">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AI3">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>45140</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>3.44</v>
+        <v>1.67</v>
       </c>
       <c r="H4">
-        <v>2.99</v>
+        <v>3.95</v>
       </c>
       <c r="I4">
-        <v>2.07</v>
+        <v>4.97</v>
       </c>
       <c r="J4">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K4">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="L4">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="M4">
-        <v>3.5</v>
+        <v>4.12</v>
       </c>
       <c r="N4">
+        <v>1.58</v>
+      </c>
+      <c r="O4">
+        <v>2.22</v>
+      </c>
+      <c r="P4">
+        <v>1.32</v>
+      </c>
+      <c r="Q4">
+        <v>3.1</v>
+      </c>
+      <c r="R4">
         <v>1.75</v>
-      </c>
-      <c r="O4">
-        <v>1.95</v>
-      </c>
-      <c r="P4">
-        <v>1.36</v>
-      </c>
-      <c r="Q4">
-        <v>2.9</v>
-      </c>
-      <c r="R4">
-        <v>1.72</v>
       </c>
       <c r="S4">
         <v>2.05</v>
       </c>
       <c r="T4">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="U4">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="V4">
-        <v>1.22</v>
+        <v>2.15</v>
       </c>
       <c r="W4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.12</v>
+        <v>1.45</v>
       </c>
       <c r="AC4">
-        <v>6.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD4">
+        <v>3.61</v>
+      </c>
+      <c r="AE4">
+        <v>1.38</v>
+      </c>
+      <c r="AF4">
+        <v>1.65</v>
+      </c>
+      <c r="AG4">
         <v>2.05</v>
       </c>
-      <c r="AE4">
-        <v>1.31</v>
-      </c>
-      <c r="AF4">
-        <v>1.61</v>
-      </c>
-      <c r="AG4">
-        <v>1.98</v>
-      </c>
       <c r="AH4">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="AI4">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>45140</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G5">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="H5">
-        <v>3.2</v>
+        <v>3.86</v>
       </c>
       <c r="I5">
-        <v>3.3</v>
+        <v>5.87</v>
       </c>
       <c r="J5">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L5">
+        <v>1.3</v>
+      </c>
+      <c r="M5">
+        <v>3.14</v>
+      </c>
+      <c r="N5">
+        <v>1.87</v>
+      </c>
+      <c r="O5">
+        <v>1.83</v>
+      </c>
+      <c r="P5">
         <v>1.4</v>
       </c>
-      <c r="M5">
-        <v>2.85</v>
-      </c>
-      <c r="N5">
+      <c r="Q5">
+        <v>2.75</v>
+      </c>
+      <c r="R5">
         <v>2.25</v>
       </c>
-      <c r="O5">
-        <v>1.6</v>
-      </c>
-      <c r="P5">
-        <v>1.48</v>
-      </c>
-      <c r="Q5">
-        <v>2.45</v>
-      </c>
-      <c r="R5">
-        <v>1.83</v>
-      </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="T5">
-        <v>1.3</v>
+        <v>1.09</v>
       </c>
       <c r="U5">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="V5">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="W5">
         <v>2</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y5">
-        <v>2.81</v>
+        <v>2.04</v>
       </c>
       <c r="Z5">
-        <v>2.47</v>
+        <v>1.68</v>
       </c>
       <c r="AA5">
-        <v>5.28</v>
+        <v>3.72</v>
       </c>
       <c r="AB5">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
       <c r="AC5">
         <v>9.5</v>
       </c>
       <c r="AD5">
-        <v>2.88</v>
+        <v>5.74</v>
       </c>
       <c r="AE5">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AF5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AG5">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AH5">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AI5">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>45140</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G6">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H6">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="I6">
-        <v>4.35</v>
+        <v>6.58</v>
       </c>
       <c r="J6">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>16.25</v>
       </c>
       <c r="L6">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M6">
-        <v>4.12</v>
+        <v>4.25</v>
       </c>
       <c r="N6">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O6">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="P6">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Q6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="T6">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="U6">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="V6">
-        <v>2.15</v>
+        <v>3.9</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AB6">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="AC6">
-        <v>9.699999999999999</v>
+        <v>23</v>
       </c>
       <c r="AD6">
-        <v>3.61</v>
+        <v>6.4</v>
       </c>
       <c r="AE6">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AF6">
-        <v>1.65</v>
+        <v>1.36</v>
       </c>
       <c r="AG6">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AH6">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="AI6">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>45140</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G7">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="H7">
-        <v>4.25</v>
+        <v>5.3</v>
       </c>
       <c r="I7">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>8.699999999999999</v>
+        <v>14</v>
       </c>
       <c r="L7">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="M7">
-        <v>3.14</v>
+        <v>4.33</v>
       </c>
       <c r="N7">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="O7">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="Q7">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.75</v>
+      </c>
+      <c r="T7">
+        <v>1.08</v>
+      </c>
+      <c r="U7">
+        <v>1.15</v>
+      </c>
+      <c r="V7">
+        <v>3.2</v>
+      </c>
+      <c r="W7">
+        <v>2.33</v>
+      </c>
+      <c r="X7">
+        <v>1.67</v>
+      </c>
+      <c r="Y7">
+        <v>2.9</v>
+      </c>
+      <c r="Z7">
+        <v>1.42</v>
+      </c>
+      <c r="AA7">
+        <v>4.32</v>
+      </c>
+      <c r="AB7">
+        <v>1.29</v>
+      </c>
+      <c r="AC7">
+        <v>13.5</v>
+      </c>
+      <c r="AD7">
+        <v>4.49</v>
+      </c>
+      <c r="AE7">
+        <v>1.25</v>
+      </c>
+      <c r="AF7">
+        <v>1.47</v>
+      </c>
+      <c r="AG7">
+        <v>1.8</v>
+      </c>
+      <c r="AH7">
         <v>2.25</v>
       </c>
-      <c r="S7">
-        <v>1.55</v>
-      </c>
-      <c r="T7">
-        <v>1.09</v>
-      </c>
-      <c r="U7">
-        <v>1.2</v>
-      </c>
-      <c r="V7">
-        <v>2.75</v>
-      </c>
-      <c r="W7">
-        <v>2</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
-      <c r="Y7">
-        <v>2.04</v>
-      </c>
-      <c r="Z7">
-        <v>1.68</v>
-      </c>
-      <c r="AA7">
-        <v>3.72</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>1.28</v>
-      </c>
-      <c r="AF7">
-        <v>1.5</v>
-      </c>
-      <c r="AG7">
-        <v>1.83</v>
-      </c>
-      <c r="AH7">
-        <v>2.35</v>
-      </c>
       <c r="AI7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>45140</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="H8">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I8">
         <v>11</v>
@@ -1450,171 +1408,171 @@
         <v>1.03</v>
       </c>
       <c r="K8">
-        <v>16.25</v>
+        <v>18.25</v>
       </c>
       <c r="L8">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="M8">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="N8">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="O8">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="P8">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R8">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="S8">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="T8">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="U8">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="V8">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>1.42</v>
+        <v>2.18</v>
       </c>
       <c r="AA8">
-        <v>1.42</v>
+        <v>2.18</v>
       </c>
       <c r="AB8">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AC8">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AD8">
-        <v>6.4</v>
+        <v>4.34</v>
       </c>
       <c r="AE8">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AF8">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AG8">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="AH8">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AI8">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <v>45140</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G9">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H9">
-        <v>5.2</v>
+        <v>6.05</v>
       </c>
       <c r="I9">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="J9">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="L9">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="M9">
-        <v>4.33</v>
+        <v>5.75</v>
       </c>
       <c r="N9">
         <v>1.55</v>
       </c>
       <c r="O9">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="P9">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Q9">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="S9">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="T9">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="U9">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="V9">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1.67</v>
       </c>
       <c r="Y9">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="AA9">
-        <v>4.32</v>
+        <v>2.05</v>
       </c>
       <c r="AB9">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="AC9">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AD9">
-        <v>4.49</v>
+        <v>17.5</v>
       </c>
       <c r="AE9">
         <v>1.25</v>
@@ -1640,103 +1598,103 @@
         <v>45140</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G10">
-        <v>1.23</v>
+        <v>2.16</v>
       </c>
       <c r="H10">
-        <v>5.2</v>
+        <v>3.22</v>
       </c>
       <c r="I10">
-        <v>8.5</v>
+        <v>3.56</v>
       </c>
       <c r="J10">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="K10">
-        <v>18.25</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="M10">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="N10">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
+        <v>1.5</v>
+      </c>
+      <c r="P10">
+        <v>1.53</v>
+      </c>
+      <c r="Q10">
         <v>2.38</v>
-      </c>
-      <c r="P10">
-        <v>1.28</v>
-      </c>
-      <c r="Q10">
-        <v>3.3</v>
       </c>
       <c r="R10">
         <v>2.1</v>
       </c>
       <c r="S10">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T10">
-        <v>1.07</v>
+        <v>1.28</v>
       </c>
       <c r="U10">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="V10">
-        <v>3.6</v>
+        <v>1.68</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>0.78</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Z10">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="AA10">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE10">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AF10">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="AG10">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="AH10">
-        <v>2.4</v>
+        <v>1.93</v>
       </c>
       <c r="AI10">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1747,792 +1705,792 @@
         <v>45140</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>1.79</v>
+      </c>
+      <c r="H11">
+        <v>3.34</v>
+      </c>
+      <c r="I11">
+        <v>5.11</v>
+      </c>
+      <c r="J11">
+        <v>1.12</v>
+      </c>
+      <c r="K11">
+        <v>5.5</v>
+      </c>
+      <c r="L11">
+        <v>1.53</v>
+      </c>
+      <c r="M11">
+        <v>2.35</v>
+      </c>
+      <c r="N11">
+        <v>2.4</v>
+      </c>
+      <c r="O11">
+        <v>1.5</v>
+      </c>
+      <c r="P11">
+        <v>1.57</v>
+      </c>
+      <c r="Q11">
+        <v>2.25</v>
+      </c>
+      <c r="R11">
+        <v>2.63</v>
+      </c>
+      <c r="S11">
+        <v>1.44</v>
+      </c>
+      <c r="T11">
+        <v>1.16</v>
+      </c>
+      <c r="U11">
+        <v>1.34</v>
+      </c>
+      <c r="V11">
+        <v>1.95</v>
+      </c>
+      <c r="W11">
+        <v>1.9</v>
+      </c>
+      <c r="X11">
+        <v>0.89</v>
+      </c>
+      <c r="Y11">
+        <v>1.8</v>
+      </c>
+      <c r="Z11">
+        <v>1.22</v>
+      </c>
+      <c r="AA11">
+        <v>3.02</v>
+      </c>
+      <c r="AB11">
+        <v>1.45</v>
+      </c>
+      <c r="AC11">
+        <v>8</v>
+      </c>
+      <c r="AD11">
+        <v>3.5</v>
+      </c>
+      <c r="AE11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11">
-        <v>1.11</v>
-      </c>
-      <c r="H11">
-        <v>7.6</v>
-      </c>
-      <c r="I11">
-        <v>9.25</v>
-      </c>
-      <c r="J11">
-        <v>1.02</v>
-      </c>
-      <c r="K11">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>1.14</v>
-      </c>
-      <c r="M11">
-        <v>5.75</v>
-      </c>
-      <c r="N11">
-        <v>1.39</v>
-      </c>
-      <c r="O11">
-        <v>2.86</v>
-      </c>
-      <c r="P11">
-        <v>1.25</v>
-      </c>
-      <c r="Q11">
-        <v>3.6</v>
-      </c>
-      <c r="R11">
-        <v>2.5</v>
-      </c>
-      <c r="S11">
-        <v>1.5</v>
-      </c>
-      <c r="T11">
-        <v>1.03</v>
-      </c>
-      <c r="U11">
-        <v>1.07</v>
-      </c>
-      <c r="V11">
-        <v>6</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>1.67</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>2.05</v>
-      </c>
-      <c r="AA11">
-        <v>2.05</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>1.25</v>
-      </c>
       <c r="AF11">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AG11">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AH11">
-        <v>2.25</v>
+        <v>1.69</v>
       </c>
       <c r="AI11">
-        <v>3</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>45140</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H12">
-        <v>2.9</v>
+        <v>3.22</v>
       </c>
       <c r="I12">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="J12">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K12">
-        <v>9.15</v>
+        <v>7.29</v>
       </c>
       <c r="L12">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M12">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2.05</v>
+        <v>2.58</v>
       </c>
       <c r="O12">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P12">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Q12">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R12">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T12">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U12">
         <v>1.3</v>
       </c>
       <c r="V12">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W12">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="X12">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="Y12">
         <v>1.75</v>
       </c>
       <c r="Z12">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AA12">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2">
         <v>45140</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="H13">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I13">
-        <v>3.35</v>
+        <v>2.71</v>
       </c>
       <c r="J13">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M13">
-        <v>2.5</v>
+        <v>3.23</v>
       </c>
       <c r="N13">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="O13">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="P13">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q13">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
-        <v>1.28</v>
+        <v>1.6</v>
       </c>
       <c r="U13">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="V13">
-        <v>1.68</v>
+        <v>1.4</v>
       </c>
       <c r="W13">
         <v>1.33</v>
       </c>
       <c r="X13">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="Z13">
-        <v>1.37</v>
+        <v>1.61</v>
       </c>
       <c r="AA13">
-        <v>2.8</v>
+        <v>3.28</v>
       </c>
       <c r="AB13">
-        <v>1.53</v>
+        <v>2.02</v>
       </c>
       <c r="AC13">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD13">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="AE13">
-        <v>1.16</v>
+        <v>1.36</v>
       </c>
       <c r="AF13">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AG13">
-        <v>1.6</v>
+        <v>2.12</v>
       </c>
       <c r="AH13">
-        <v>1.93</v>
+        <v>2.79</v>
       </c>
       <c r="AI13">
-        <v>2.38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>45140</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G14">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H14">
-        <v>3.2</v>
+        <v>3.22</v>
       </c>
       <c r="I14">
-        <v>4.7</v>
+        <v>3.24</v>
       </c>
       <c r="J14">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="K14">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="L14">
+        <v>1.5</v>
+      </c>
+      <c r="M14">
+        <v>2.45</v>
+      </c>
+      <c r="N14">
+        <v>2.35</v>
+      </c>
+      <c r="O14">
         <v>1.53</v>
       </c>
-      <c r="M14">
-        <v>2.34</v>
-      </c>
-      <c r="N14">
-        <v>2.73</v>
-      </c>
-      <c r="O14">
-        <v>1.4</v>
-      </c>
       <c r="P14">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q14">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R14">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="S14">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="T14">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="U14">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="W14">
-        <v>1.9</v>
+        <v>2.44</v>
       </c>
       <c r="X14">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="Y14">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="Z14">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AA14">
-        <v>3.02</v>
+        <v>2.56</v>
       </c>
       <c r="AB14">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD14">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF14">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AG14">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AH14">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AI14">
-        <v>2.03</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="15" spans="1:35">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2">
         <v>45140</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15">
+        <v>2.51</v>
+      </c>
+      <c r="H15">
+        <v>3.08</v>
+      </c>
+      <c r="I15">
+        <v>3.02</v>
+      </c>
+      <c r="J15">
+        <v>1.1</v>
+      </c>
+      <c r="K15">
+        <v>6.5</v>
+      </c>
+      <c r="L15">
+        <v>1.48</v>
+      </c>
+      <c r="M15">
+        <v>2.48</v>
+      </c>
+      <c r="N15">
+        <v>2.4</v>
+      </c>
+      <c r="O15">
+        <v>1.5</v>
+      </c>
+      <c r="P15">
+        <v>1.57</v>
+      </c>
+      <c r="Q15">
+        <v>2.25</v>
+      </c>
+      <c r="R15">
+        <v>2.1</v>
+      </c>
+      <c r="S15">
+        <v>1.67</v>
+      </c>
+      <c r="T15">
+        <v>1.3</v>
+      </c>
+      <c r="U15">
+        <v>1.33</v>
+      </c>
+      <c r="V15">
+        <v>1.53</v>
+      </c>
+      <c r="W15">
+        <v>2.33</v>
+      </c>
+      <c r="X15">
+        <v>1.11</v>
+      </c>
+      <c r="Y15">
+        <v>1.91</v>
+      </c>
+      <c r="Z15">
+        <v>1.2</v>
+      </c>
+      <c r="AA15">
+        <v>3.11</v>
+      </c>
+      <c r="AB15">
+        <v>1.7</v>
+      </c>
+      <c r="AC15">
+        <v>7</v>
+      </c>
+      <c r="AD15">
+        <v>2.7</v>
+      </c>
+      <c r="AE15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15">
-        <v>2.53</v>
-      </c>
-      <c r="H15">
-        <v>3.2</v>
-      </c>
-      <c r="I15">
-        <v>2.7</v>
-      </c>
-      <c r="J15">
-        <v>1.08</v>
-      </c>
-      <c r="K15">
-        <v>7.29</v>
-      </c>
-      <c r="L15">
-        <v>1.45</v>
-      </c>
-      <c r="M15">
-        <v>2.66</v>
-      </c>
-      <c r="N15">
-        <v>2.36</v>
-      </c>
-      <c r="O15">
-        <v>1.52</v>
-      </c>
-      <c r="P15">
-        <v>1.53</v>
-      </c>
-      <c r="Q15">
-        <v>2.38</v>
-      </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.75</v>
-      </c>
-      <c r="T15">
-        <v>1.47</v>
-      </c>
-      <c r="U15">
-        <v>1.3</v>
-      </c>
-      <c r="V15">
-        <v>1.45</v>
-      </c>
-      <c r="W15">
-        <v>1.83</v>
-      </c>
-      <c r="X15">
-        <v>2.17</v>
-      </c>
-      <c r="Y15">
-        <v>1.75</v>
-      </c>
-      <c r="Z15">
-        <v>1.3</v>
-      </c>
-      <c r="AA15">
-        <v>3.05</v>
-      </c>
-      <c r="AB15">
-        <v>2.01</v>
-      </c>
-      <c r="AC15">
-        <v>8.5</v>
-      </c>
-      <c r="AD15">
-        <v>2.09</v>
-      </c>
-      <c r="AE15">
-        <v>1.35</v>
-      </c>
       <c r="AF15">
-        <v>1.64</v>
+        <v>1.21</v>
       </c>
       <c r="AG15">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="AH15">
-        <v>2.71</v>
+        <v>1.74</v>
       </c>
       <c r="AI15">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>45140</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G16">
-        <v>2.75</v>
+        <v>1.51</v>
       </c>
       <c r="H16">
-        <v>3.3</v>
+        <v>3.94</v>
       </c>
       <c r="I16">
-        <v>2.23</v>
+        <v>7.23</v>
       </c>
       <c r="J16">
+        <v>1.08</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>1.42</v>
+      </c>
+      <c r="M16">
+        <v>2.7</v>
+      </c>
+      <c r="N16">
+        <v>2.35</v>
+      </c>
+      <c r="O16">
+        <v>1.53</v>
+      </c>
+      <c r="P16">
+        <v>1.5</v>
+      </c>
+      <c r="Q16">
+        <v>2.5</v>
+      </c>
+      <c r="R16">
+        <v>2.5</v>
+      </c>
+      <c r="S16">
+        <v>1.5</v>
+      </c>
+      <c r="T16">
         <v>1.05</v>
       </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-      <c r="L16">
-        <v>1.33</v>
-      </c>
-      <c r="M16">
-        <v>3.23</v>
-      </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>1.72</v>
-      </c>
-      <c r="P16">
-        <v>1.44</v>
-      </c>
-      <c r="Q16">
+      <c r="U16">
+        <v>1.2</v>
+      </c>
+      <c r="V16">
+        <v>2.35</v>
+      </c>
+      <c r="W16">
+        <v>2.33</v>
+      </c>
+      <c r="X16">
+        <v>0.7</v>
+      </c>
+      <c r="Y16">
+        <v>1.7</v>
+      </c>
+      <c r="Z16">
+        <v>0.99</v>
+      </c>
+      <c r="AA16">
+        <v>2.69</v>
+      </c>
+      <c r="AB16">
+        <v>1.25</v>
+      </c>
+      <c r="AC16">
+        <v>9</v>
+      </c>
+      <c r="AD16">
+        <v>5.25</v>
+      </c>
+      <c r="AE16">
+        <v>1.23</v>
+      </c>
+      <c r="AF16">
+        <v>1.43</v>
+      </c>
+      <c r="AG16">
+        <v>1.74</v>
+      </c>
+      <c r="AH16">
+        <v>2.13</v>
+      </c>
+      <c r="AI16">
         <v>2.63</v>
-      </c>
-      <c r="R16">
-        <v>1.8</v>
-      </c>
-      <c r="S16">
-        <v>1.95</v>
-      </c>
-      <c r="T16">
-        <v>1.6</v>
-      </c>
-      <c r="U16">
-        <v>1.25</v>
-      </c>
-      <c r="V16">
-        <v>1.4</v>
-      </c>
-      <c r="W16">
-        <v>1.33</v>
-      </c>
-      <c r="X16">
-        <v>2</v>
-      </c>
-      <c r="Y16">
-        <v>1.67</v>
-      </c>
-      <c r="Z16">
-        <v>1.61</v>
-      </c>
-      <c r="AA16">
-        <v>3.28</v>
-      </c>
-      <c r="AB16">
-        <v>2.02</v>
-      </c>
-      <c r="AC16">
-        <v>8.5</v>
-      </c>
-      <c r="AD16">
-        <v>2.08</v>
-      </c>
-      <c r="AE16">
-        <v>1.36</v>
-      </c>
-      <c r="AF16">
-        <v>1.68</v>
-      </c>
-      <c r="AG16">
-        <v>2.12</v>
-      </c>
-      <c r="AH16">
-        <v>2.79</v>
-      </c>
-      <c r="AI16">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:35">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2">
         <v>45140</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D17">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>2.52</v>
+      </c>
+      <c r="H17">
+        <v>3.08</v>
+      </c>
+      <c r="I17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17">
+      <c r="J17">
+        <v>1.1</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>1.53</v>
+      </c>
+      <c r="M17">
+        <v>2.35</v>
+      </c>
+      <c r="N17">
+        <v>2.4</v>
+      </c>
+      <c r="O17">
+        <v>1.5</v>
+      </c>
+      <c r="P17">
+        <v>1.57</v>
+      </c>
+      <c r="Q17">
+        <v>2.25</v>
+      </c>
+      <c r="R17">
+        <v>2.2</v>
+      </c>
+      <c r="S17">
+        <v>1.62</v>
+      </c>
+      <c r="T17">
+        <v>1.38</v>
+      </c>
+      <c r="U17">
+        <v>1.34</v>
+      </c>
+      <c r="V17">
+        <v>1.52</v>
+      </c>
+      <c r="W17">
+        <v>1.78</v>
+      </c>
+      <c r="X17">
         <v>1.9</v>
       </c>
-      <c r="H17">
-        <v>3.4</v>
-      </c>
-      <c r="I17">
-        <v>4.2</v>
-      </c>
-      <c r="J17">
-        <v>1.07</v>
-      </c>
-      <c r="K17">
-        <v>9</v>
-      </c>
-      <c r="L17">
-        <v>1.36</v>
-      </c>
-      <c r="M17">
-        <v>3.1</v>
-      </c>
-      <c r="N17">
-        <v>2.05</v>
-      </c>
-      <c r="O17">
-        <v>1.75</v>
-      </c>
-      <c r="P17">
-        <v>1.44</v>
-      </c>
-      <c r="Q17">
-        <v>2.6</v>
-      </c>
-      <c r="R17">
-        <v>1.9</v>
-      </c>
-      <c r="S17">
-        <v>1.83</v>
-      </c>
-      <c r="T17">
-        <v>1.22</v>
-      </c>
-      <c r="U17">
-        <v>1.25</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>2</v>
-      </c>
-      <c r="X17">
-        <v>0.85</v>
-      </c>
       <c r="Y17">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="Z17">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AA17">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="AB17">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="AC17">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD17">
-        <v>2.92</v>
+        <v>2.3</v>
       </c>
       <c r="AE17">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AF17">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="AG17">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AH17">
-        <v>2.75</v>
+        <v>1.82</v>
       </c>
       <c r="AI17">
-        <v>4</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>45140</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <v>2.28</v>
+        <v>2.54</v>
       </c>
       <c r="H18">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="I18">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="J18">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K18">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L18">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M18">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N18">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O18">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P18">
         <v>1.53</v>
@@ -2547,586 +2505,158 @@
         <v>1.67</v>
       </c>
       <c r="T18">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="U18">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="V18">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="W18">
-        <v>2.44</v>
+        <v>1.11</v>
       </c>
       <c r="X18">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="Y18">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="Z18">
-        <v>1.14</v>
+        <v>1.39</v>
       </c>
       <c r="AA18">
         <v>2.56</v>
       </c>
       <c r="AB18">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AC18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD18">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="AE18">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF18">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AG18">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AH18">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="AI18">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="19" spans="1:35">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>45140</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G19">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="H19">
-        <v>2.92</v>
+        <v>3.28</v>
       </c>
       <c r="I19">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="J19">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="K19">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="L19">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>2.91</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>2.43</v>
       </c>
       <c r="O19">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="P19">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="Q19">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S19">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="T19">
+        <v>1.42</v>
+      </c>
+      <c r="U19">
         <v>1.3</v>
-      </c>
-      <c r="U19">
-        <v>1.33</v>
       </c>
       <c r="V19">
         <v>1.53</v>
       </c>
       <c r="W19">
-        <v>2.33</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
-        <v>1.11</v>
+        <v>2.5</v>
       </c>
       <c r="Y19">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="Z19">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="AA19">
-        <v>3.11</v>
+        <v>3.86</v>
       </c>
       <c r="AB19">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="AC19">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD19">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF19">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AG19">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AH19">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="AI19">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45140</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20">
-        <v>1.55</v>
-      </c>
-      <c r="H20">
-        <v>3.7</v>
-      </c>
-      <c r="I20">
-        <v>4.9</v>
-      </c>
-      <c r="J20">
-        <v>1.08</v>
-      </c>
-      <c r="K20">
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <v>1.42</v>
-      </c>
-      <c r="M20">
-        <v>2.7</v>
-      </c>
-      <c r="N20">
-        <v>2.35</v>
-      </c>
-      <c r="O20">
-        <v>1.53</v>
-      </c>
-      <c r="P20">
-        <v>1.5</v>
-      </c>
-      <c r="Q20">
-        <v>2.5</v>
-      </c>
-      <c r="R20">
-        <v>2.5</v>
-      </c>
-      <c r="S20">
-        <v>1.5</v>
-      </c>
-      <c r="T20">
-        <v>1.05</v>
-      </c>
-      <c r="U20">
-        <v>1.2</v>
-      </c>
-      <c r="V20">
-        <v>2.35</v>
-      </c>
-      <c r="W20">
-        <v>2.33</v>
-      </c>
-      <c r="X20">
-        <v>0.7</v>
-      </c>
-      <c r="Y20">
-        <v>1.7</v>
-      </c>
-      <c r="Z20">
-        <v>0.99</v>
-      </c>
-      <c r="AA20">
-        <v>2.69</v>
-      </c>
-      <c r="AB20">
-        <v>1.25</v>
-      </c>
-      <c r="AC20">
-        <v>9</v>
-      </c>
-      <c r="AD20">
-        <v>5.25</v>
-      </c>
-      <c r="AE20">
-        <v>1.23</v>
-      </c>
-      <c r="AF20">
-        <v>1.43</v>
-      </c>
-      <c r="AG20">
-        <v>1.74</v>
-      </c>
-      <c r="AH20">
-        <v>2.13</v>
-      </c>
-      <c r="AI20">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="2">
-        <v>45140</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21">
-        <v>2.49</v>
-      </c>
-      <c r="H21">
-        <v>2.9</v>
-      </c>
-      <c r="I21">
-        <v>3</v>
-      </c>
-      <c r="J21">
-        <v>1.1</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>1.48</v>
-      </c>
-      <c r="M21">
-        <v>2.46</v>
-      </c>
-      <c r="N21">
-        <v>2.45</v>
-      </c>
-      <c r="O21">
-        <v>1.52</v>
-      </c>
-      <c r="P21">
-        <v>1.57</v>
-      </c>
-      <c r="Q21">
-        <v>2.25</v>
-      </c>
-      <c r="R21">
-        <v>2.2</v>
-      </c>
-      <c r="S21">
-        <v>1.62</v>
-      </c>
-      <c r="T21">
-        <v>1.38</v>
-      </c>
-      <c r="U21">
-        <v>1.34</v>
-      </c>
-      <c r="V21">
-        <v>1.52</v>
-      </c>
-      <c r="W21">
-        <v>1.78</v>
-      </c>
-      <c r="X21">
-        <v>1.9</v>
-      </c>
-      <c r="Y21">
-        <v>1.66</v>
-      </c>
-      <c r="Z21">
-        <v>1.46</v>
-      </c>
-      <c r="AA21">
-        <v>3.12</v>
-      </c>
-      <c r="AB21">
-        <v>1.88</v>
-      </c>
-      <c r="AC21">
-        <v>7.5</v>
-      </c>
-      <c r="AD21">
-        <v>2.3</v>
-      </c>
-      <c r="AE21">
-        <v>1.13</v>
-      </c>
-      <c r="AF21">
-        <v>1.24</v>
-      </c>
-      <c r="AG21">
-        <v>1.52</v>
-      </c>
-      <c r="AH21">
-        <v>1.82</v>
-      </c>
-      <c r="AI21">
-        <v>2.22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2">
-        <v>45140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22">
-        <v>2.35</v>
-      </c>
-      <c r="H22">
-        <v>2.98</v>
-      </c>
-      <c r="I22">
-        <v>2.79</v>
-      </c>
-      <c r="J22">
-        <v>1.11</v>
-      </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <v>1.45</v>
-      </c>
-      <c r="M22">
-        <v>2.6</v>
-      </c>
-      <c r="N22">
-        <v>2.4</v>
-      </c>
-      <c r="O22">
-        <v>1.5</v>
-      </c>
-      <c r="P22">
-        <v>1.53</v>
-      </c>
-      <c r="Q22">
-        <v>2.38</v>
-      </c>
-      <c r="R22">
-        <v>2.1</v>
-      </c>
-      <c r="S22">
-        <v>1.67</v>
-      </c>
-      <c r="T22">
-        <v>1.33</v>
-      </c>
-      <c r="U22">
-        <v>1.3</v>
-      </c>
-      <c r="V22">
-        <v>1.53</v>
-      </c>
-      <c r="W22">
-        <v>1.11</v>
-      </c>
-      <c r="X22">
-        <v>0.63</v>
-      </c>
-      <c r="Y22">
-        <v>1.17</v>
-      </c>
-      <c r="Z22">
-        <v>1.39</v>
-      </c>
-      <c r="AA22">
-        <v>2.56</v>
-      </c>
-      <c r="AB22">
-        <v>1.48</v>
-      </c>
-      <c r="AC22">
-        <v>8</v>
-      </c>
-      <c r="AD22">
-        <v>3.4</v>
-      </c>
-      <c r="AE22">
-        <v>1.2</v>
-      </c>
-      <c r="AF22">
-        <v>1.4</v>
-      </c>
-      <c r="AG22">
-        <v>1.68</v>
-      </c>
-      <c r="AH22">
-        <v>2.06</v>
-      </c>
-      <c r="AI22">
-        <v>2.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2">
-        <v>45140</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23">
-        <v>2.48</v>
-      </c>
-      <c r="H23">
-        <v>3.07</v>
-      </c>
-      <c r="I23">
-        <v>2.62</v>
-      </c>
-      <c r="J23">
-        <v>1.06</v>
-      </c>
-      <c r="K23">
-        <v>8.6</v>
-      </c>
-      <c r="L23">
-        <v>1.39</v>
-      </c>
-      <c r="M23">
-        <v>2.91</v>
-      </c>
-      <c r="N23">
-        <v>2.17</v>
-      </c>
-      <c r="O23">
-        <v>1.7</v>
-      </c>
-      <c r="P23">
-        <v>1.44</v>
-      </c>
-      <c r="Q23">
-        <v>2.63</v>
-      </c>
-      <c r="R23">
-        <v>1.91</v>
-      </c>
-      <c r="S23">
-        <v>1.91</v>
-      </c>
-      <c r="T23">
-        <v>1.42</v>
-      </c>
-      <c r="U23">
-        <v>1.3</v>
-      </c>
-      <c r="V23">
-        <v>1.53</v>
-      </c>
-      <c r="W23">
-        <v>1.8</v>
-      </c>
-      <c r="X23">
-        <v>2.5</v>
-      </c>
-      <c r="Y23">
-        <v>2.17</v>
-      </c>
-      <c r="Z23">
-        <v>1.69</v>
-      </c>
-      <c r="AA23">
-        <v>3.86</v>
-      </c>
-      <c r="AB23">
-        <v>1.79</v>
-      </c>
-      <c r="AC23">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AD23">
-        <v>2.38</v>
-      </c>
-      <c r="AE23">
-        <v>1.15</v>
-      </c>
-      <c r="AF23">
-        <v>1.32</v>
-      </c>
-      <c r="AG23">
-        <v>1.59</v>
-      </c>
-      <c r="AH23">
-        <v>1.95</v>
-      </c>
-      <c r="AI23">
         <v>2.51</v>
       </c>
     </row>
